--- a/Pixelmon Custom NPC Shop/Custom Items - 1.20.2.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Items - 1.20.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83897B79-863A-4235-8CCA-35445FBA5AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E07A47-4D91-4120-B570-AD4A9ADB164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1338">
   <si>
     <t>Item Name</t>
   </si>
@@ -4006,6 +4006,48 @@
   </si>
   <si>
     <t>pixelmon:diamond_hourglass</t>
+  </si>
+  <si>
+    <t>Auspicious Armor</t>
+  </si>
+  <si>
+    <t>pixelmon:auspicious_armor</t>
+  </si>
+  <si>
+    <t>Chipped Pot</t>
+  </si>
+  <si>
+    <t>pixelmon:chipped_pot</t>
+  </si>
+  <si>
+    <t>Cracked Pot</t>
+  </si>
+  <si>
+    <t>pixelmon:cracked_pot</t>
+  </si>
+  <si>
+    <t>Linking Cord</t>
+  </si>
+  <si>
+    <t>pixelmon:linking_cord</t>
+  </si>
+  <si>
+    <t>Malicious Armor</t>
+  </si>
+  <si>
+    <t>pixelmon:malicious_armor</t>
+  </si>
+  <si>
+    <t>Sweet Apple</t>
+  </si>
+  <si>
+    <t>pixelmon:sweet_apple</t>
+  </si>
+  <si>
+    <t>Tart Apple</t>
+  </si>
+  <si>
+    <t>pixelmon:tart_apple</t>
   </si>
 </sst>
 </file>
@@ -4332,11 +4374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H581"/>
+  <dimension ref="A1:H588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G544" sqref="G544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5837,10 +5879,10 @@
         <v>800</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1307</v>
+        <v>1324</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1308</v>
+        <v>1325</v>
       </c>
       <c r="E103" s="1">
         <v>30000</v>
@@ -5851,10 +5893,10 @@
         <v>800</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>469</v>
+        <v>1307</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>264</v>
+        <v>1308</v>
       </c>
       <c r="E104" s="1">
         <v>30000</v>
@@ -5865,10 +5907,10 @@
         <v>800</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>263</v>
+        <v>1326</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1327</v>
       </c>
       <c r="E105" s="1">
         <v>30000</v>
@@ -5879,10 +5921,10 @@
         <v>800</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>160</v>
+        <v>1328</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1329</v>
       </c>
       <c r="E106" s="1">
         <v>30000</v>
@@ -5893,10 +5935,10 @@
         <v>800</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="E107" s="1">
         <v>30000</v>
@@ -5907,10 +5949,10 @@
         <v>800</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="E108" s="1">
         <v>30000</v>
@@ -5921,13 +5963,13 @@
         <v>800</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="E109" s="1">
-        <v>50000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -5935,10 +5977,10 @@
         <v>800</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>801</v>
+        <v>383</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E110" s="1">
         <v>30000</v>
@@ -5949,10 +5991,10 @@
         <v>800</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E111" s="1">
         <v>30000</v>
@@ -5963,13 +6005,13 @@
         <v>800</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>436</v>
+        <v>36</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="E112" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5977,10 +6019,10 @@
         <v>800</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>452</v>
+        <v>801</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="E113" s="1">
         <v>30000</v>
@@ -5991,10 +6033,10 @@
         <v>800</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>1309</v>
+        <v>1330</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1331</v>
       </c>
       <c r="E114" s="1">
         <v>30000</v>
@@ -6005,10 +6047,10 @@
         <v>800</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>802</v>
+        <v>460</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>803</v>
+        <v>156</v>
       </c>
       <c r="E115" s="1">
         <v>30000</v>
@@ -6019,10 +6061,10 @@
         <v>800</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>461</v>
+        <v>1332</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>158</v>
+        <v>1333</v>
       </c>
       <c r="E116" s="1">
         <v>30000</v>
@@ -6033,10 +6075,10 @@
         <v>800</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="E117" s="1">
         <v>30000</v>
@@ -6047,10 +6089,10 @@
         <v>800</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="E118" s="1">
         <v>30000</v>
@@ -6061,10 +6103,10 @@
         <v>800</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>453</v>
+        <v>1306</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>266</v>
+        <v>1309</v>
       </c>
       <c r="E119" s="1">
         <v>30000</v>
@@ -6075,10 +6117,10 @@
         <v>800</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1076</v>
+        <v>802</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1077</v>
+        <v>803</v>
       </c>
       <c r="E120" s="1">
         <v>30000</v>
@@ -6089,10 +6131,10 @@
         <v>800</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>384</v>
+        <v>461</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1123</v>
+        <v>158</v>
       </c>
       <c r="E121" s="1">
         <v>30000</v>
@@ -6103,10 +6145,10 @@
         <v>800</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1079</v>
+        <v>387</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1078</v>
+        <v>161</v>
       </c>
       <c r="E122" s="1">
         <v>30000</v>
@@ -6114,100 +6156,100 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E123" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1112</v>
+        <v>453</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1118</v>
+        <v>266</v>
       </c>
       <c r="E124" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>334</v>
+        <v>1076</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>137</v>
+        <v>1077</v>
       </c>
       <c r="E125" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>338</v>
+        <v>1334</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>141</v>
+        <v>1335</v>
       </c>
       <c r="E126" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1115</v>
+        <v>1336</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1121</v>
+        <v>1337</v>
       </c>
       <c r="E127" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>135</v>
+        <v>1123</v>
       </c>
       <c r="E128" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>272</v>
+        <v>800</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1120</v>
+        <v>1078</v>
       </c>
       <c r="E129" s="1">
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -6215,10 +6257,10 @@
         <v>272</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1113</v>
+        <v>337</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1119</v>
+        <v>140</v>
       </c>
       <c r="E130" s="1">
         <v>25000</v>
@@ -6229,10 +6271,10 @@
         <v>272</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>332</v>
+        <v>1112</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>134</v>
+        <v>1118</v>
       </c>
       <c r="E131" s="1">
         <v>25000</v>
@@ -6243,10 +6285,10 @@
         <v>272</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1110</v>
+        <v>334</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1116</v>
+        <v>137</v>
       </c>
       <c r="E132" s="1">
         <v>25000</v>
@@ -6257,10 +6299,10 @@
         <v>272</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E133" s="1">
         <v>25000</v>
@@ -6271,10 +6313,10 @@
         <v>272</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>339</v>
+        <v>1115</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>142</v>
+        <v>1121</v>
       </c>
       <c r="E134" s="1">
         <v>25000</v>
@@ -6285,10 +6327,10 @@
         <v>272</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E135" s="1">
         <v>25000</v>
@@ -6299,10 +6341,10 @@
         <v>272</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="E136" s="1">
         <v>25000</v>
@@ -6313,10 +6355,10 @@
         <v>272</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>336</v>
+        <v>1113</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>139</v>
+        <v>1119</v>
       </c>
       <c r="E137" s="1">
         <v>25000</v>
@@ -6324,100 +6366,100 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="E138" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>353</v>
+        <v>1110</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>222</v>
+        <v>1116</v>
       </c>
       <c r="E139" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="E140" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="E141" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="E142" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>357</v>
+        <v>1111</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>226</v>
+        <v>1117</v>
       </c>
       <c r="E143" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="E144" s="1">
-        <v>500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6425,10 +6467,10 @@
         <v>276</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E145" s="1">
         <v>500</v>
@@ -6439,10 +6481,10 @@
         <v>276</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E146" s="1">
         <v>500</v>
@@ -6453,10 +6495,10 @@
         <v>276</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E147" s="1">
         <v>500</v>
@@ -6467,10 +6509,10 @@
         <v>276</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E148" s="1">
         <v>500</v>
@@ -6481,10 +6523,10 @@
         <v>276</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E149" s="1">
         <v>500</v>
@@ -6495,10 +6537,10 @@
         <v>276</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E150" s="1">
         <v>500</v>
@@ -6509,10 +6551,10 @@
         <v>276</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E151" s="1">
         <v>500</v>
@@ -6523,10 +6565,10 @@
         <v>276</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E152" s="1">
         <v>500</v>
@@ -6537,10 +6579,10 @@
         <v>276</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E153" s="1">
         <v>500</v>
@@ -6551,10 +6593,10 @@
         <v>276</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E154" s="1">
         <v>500</v>
@@ -6565,10 +6607,10 @@
         <v>276</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E155" s="1">
         <v>500</v>
@@ -6576,196 +6618,175 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D156" s="2"/>
+        <v>232</v>
+      </c>
       <c r="E156" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>456</v>
+        <v>364</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D157" s="2"/>
+        <v>233</v>
+      </c>
       <c r="E157" s="1">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D158" s="2"/>
+        <v>234</v>
+      </c>
       <c r="E158" s="1">
-        <v>4500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D159" s="2"/>
+        <v>235</v>
+      </c>
       <c r="E159" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D160" s="2"/>
+        <v>236</v>
+      </c>
       <c r="E160" s="1">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>777</v>
+        <v>276</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>64</v>
+        <v>368</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="E161" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F161" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>777</v>
+        <v>276</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="E162" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F162" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>65</v>
+        <v>455</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D163" s="2"/>
       <c r="E163" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F163" s="1">
-        <v>8000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>66</v>
+        <v>456</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D164" s="2"/>
       <c r="E164" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F164" s="1">
-        <v>8000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>373</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D165" s="2"/>
       <c r="E165" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F165" s="1">
-        <v>8000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>68</v>
+        <v>372</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D166" s="2"/>
       <c r="E166" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F166" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>777</v>
+        <v>274</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>371</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D167" s="2"/>
       <c r="E167" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F167" s="1">
-        <v>8000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6773,10 +6794,10 @@
         <v>777</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E168" s="1">
         <v>16000</v>
@@ -6790,10 +6811,10 @@
         <v>777</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E169" s="1">
         <v>16000</v>
@@ -6807,10 +6828,10 @@
         <v>777</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E170" s="1">
         <v>16000</v>
@@ -6821,100 +6842,121 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>388</v>
+        <v>66</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="E171" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F171" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>396</v>
+        <v>67</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="E172" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F172" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>471</v>
+        <v>68</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>470</v>
+        <v>58</v>
       </c>
       <c r="E173" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F173" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>447</v>
+        <v>69</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="E174" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F174" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>786</v>
+        <v>70</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>787</v>
+        <v>60</v>
       </c>
       <c r="E175" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F175" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>416</v>
+        <v>71</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="E176" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F176" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>423</v>
+        <v>72</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="E177" s="1">
-        <v>15000</v>
+        <v>16000</v>
+      </c>
+      <c r="F177" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -6922,10 +6964,10 @@
         <v>785</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="E178" s="1">
         <v>15000</v>
@@ -6936,10 +6978,10 @@
         <v>785</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="E179" s="1">
         <v>15000</v>
@@ -6950,10 +6992,10 @@
         <v>785</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>168</v>
+        <v>470</v>
       </c>
       <c r="E180" s="1">
         <v>15000</v>
@@ -6964,10 +7006,10 @@
         <v>785</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="E181" s="1">
         <v>15000</v>
@@ -6978,10 +7020,10 @@
         <v>785</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>382</v>
+        <v>786</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>152</v>
+        <v>787</v>
       </c>
       <c r="E182" s="1">
         <v>15000</v>
@@ -6992,10 +7034,10 @@
         <v>785</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="E183" s="1">
         <v>15000</v>
@@ -7006,13 +7048,13 @@
         <v>785</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="E184" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -7020,13 +7062,13 @@
         <v>785</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="E185" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -7034,13 +7076,13 @@
         <v>785</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="E186" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -7048,10 +7090,10 @@
         <v>785</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E187" s="1">
         <v>15000</v>
@@ -7062,16 +7104,13 @@
         <v>785</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="E188" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F188" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -7079,10 +7118,10 @@
         <v>785</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="E189" s="1">
         <v>15000</v>
@@ -7093,10 +7132,10 @@
         <v>785</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E190" s="1">
         <v>15000</v>
@@ -7107,13 +7146,13 @@
         <v>785</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>789</v>
+        <v>375</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>793</v>
+        <v>144</v>
       </c>
       <c r="E191" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -7121,237 +7160,240 @@
         <v>785</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>462</v>
+        <v>376</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E192" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="E193" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E194" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>426</v>
+        <v>37</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="E195" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+      <c r="F195" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="E196" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E197" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E198" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E199" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="E200" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E201" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E202" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E203" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="E204" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>419</v>
+        <v>788</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="E205" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E206" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="E207" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>785</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E208" s="1">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -7359,10 +7401,10 @@
         <v>785</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E209" s="1">
         <v>15000</v>
@@ -7373,10 +7415,10 @@
         <v>785</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E210" s="1">
         <v>15000</v>
@@ -7387,10 +7429,10 @@
         <v>785</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="E211" s="1">
         <v>15000</v>
@@ -7401,10 +7443,10 @@
         <v>785</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="E212" s="1">
         <v>15000</v>
@@ -7415,10 +7457,10 @@
         <v>785</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="E213" s="1">
         <v>15000</v>
@@ -7429,13 +7471,13 @@
         <v>785</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="E214" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -7443,13 +7485,13 @@
         <v>785</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E215" s="1">
-        <v>15000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -7457,10 +7499,10 @@
         <v>785</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E216" s="1">
         <v>15000</v>
@@ -7471,10 +7513,10 @@
         <v>785</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="E217" s="1">
         <v>15000</v>
@@ -7485,10 +7527,10 @@
         <v>785</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>791</v>
+        <v>404</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>795</v>
+        <v>179</v>
       </c>
       <c r="E218" s="1">
         <v>15000</v>
@@ -7499,10 +7541,10 @@
         <v>785</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>796</v>
+        <v>448</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>797</v>
+        <v>258</v>
       </c>
       <c r="E219" s="1">
         <v>15000</v>
@@ -7513,10 +7555,10 @@
         <v>785</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E220" s="1">
         <v>15000</v>
@@ -7527,10 +7569,10 @@
         <v>785</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="E221" s="1">
         <v>15000</v>
@@ -7541,10 +7583,10 @@
         <v>785</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="E222" s="1">
         <v>15000</v>
@@ -7555,10 +7597,10 @@
         <v>785</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E223" s="1">
         <v>15000</v>
@@ -7569,10 +7611,10 @@
         <v>785</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E224" s="1">
         <v>15000</v>
@@ -7583,10 +7625,10 @@
         <v>785</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E225" s="1">
         <v>15000</v>
@@ -7597,10 +7639,10 @@
         <v>785</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>414</v>
+        <v>796</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>190</v>
+        <v>797</v>
       </c>
       <c r="E226" s="1">
         <v>15000</v>
@@ -7611,10 +7653,10 @@
         <v>785</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="E227" s="1">
         <v>15000</v>
@@ -7625,10 +7667,10 @@
         <v>785</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="E228" s="1">
         <v>15000</v>
@@ -7639,10 +7681,10 @@
         <v>785</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="E229" s="1">
         <v>15000</v>
@@ -7653,10 +7695,10 @@
         <v>785</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E230" s="1">
         <v>15000</v>
@@ -7667,10 +7709,10 @@
         <v>785</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E231" s="1">
         <v>15000</v>
@@ -7681,10 +7723,10 @@
         <v>785</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>449</v>
+        <v>790</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>259</v>
+        <v>794</v>
       </c>
       <c r="E232" s="1">
         <v>15000</v>
@@ -7695,10 +7737,10 @@
         <v>785</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E233" s="1">
         <v>15000</v>
@@ -7709,10 +7751,10 @@
         <v>785</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E234" s="1">
         <v>15000</v>
@@ -7723,10 +7765,10 @@
         <v>785</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E235" s="1">
         <v>15000</v>
@@ -7737,10 +7779,10 @@
         <v>785</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="E236" s="1">
         <v>15000</v>
@@ -7751,10 +7793,10 @@
         <v>785</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="E237" s="1">
         <v>15000</v>
@@ -7765,10 +7807,10 @@
         <v>785</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E238" s="1">
         <v>15000</v>
@@ -7779,10 +7821,10 @@
         <v>785</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="E239" s="1">
         <v>15000</v>
@@ -7793,10 +7835,10 @@
         <v>785</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E240" s="1">
         <v>15000</v>
@@ -7807,10 +7849,10 @@
         <v>785</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>53</v>
+        <v>440</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E241" s="1">
         <v>15000</v>
@@ -7821,10 +7863,10 @@
         <v>785</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="E242" s="1">
         <v>15000</v>
@@ -7835,10 +7877,10 @@
         <v>785</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E243" s="1">
         <v>15000</v>
@@ -7849,10 +7891,10 @@
         <v>785</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E244" s="1">
         <v>15000</v>
@@ -7863,10 +7905,10 @@
         <v>785</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E245" s="1">
         <v>15000</v>
@@ -7877,10 +7919,10 @@
         <v>785</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="E246" s="1">
         <v>15000</v>
@@ -7891,10 +7933,10 @@
         <v>785</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E247" s="1">
         <v>15000</v>
@@ -7905,10 +7947,10 @@
         <v>785</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>430</v>
+        <v>53</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E248" s="1">
         <v>15000</v>
@@ -7919,10 +7961,10 @@
         <v>785</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="E249" s="1">
         <v>15000</v>
@@ -7933,10 +7975,10 @@
         <v>785</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="E250" s="1">
         <v>15000</v>
@@ -7947,10 +7989,10 @@
         <v>785</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E251" s="1">
         <v>15000</v>
@@ -7961,10 +8003,10 @@
         <v>785</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="E252" s="1">
         <v>15000</v>
@@ -7975,10 +8017,10 @@
         <v>785</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E253" s="1">
         <v>15000</v>
@@ -7989,10 +8031,10 @@
         <v>785</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E254" s="1">
         <v>15000</v>
@@ -8003,10 +8045,10 @@
         <v>785</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E255" s="1">
         <v>15000</v>
@@ -8014,100 +8056,100 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="E256" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>344</v>
+        <v>445</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="E257" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="E258" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E259" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="E260" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E261" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E262" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -8115,10 +8157,10 @@
         <v>275</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E263" s="1">
         <v>10000</v>
@@ -8129,10 +8171,10 @@
         <v>275</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E264" s="1">
         <v>10000</v>
@@ -8140,100 +8182,100 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1311</v>
+        <v>345</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1314</v>
+        <v>214</v>
       </c>
       <c r="E265" s="1">
-        <v>250000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>5</v>
+        <v>346</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="E266" s="1">
-        <v>250000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>875</v>
+        <v>347</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>876</v>
+        <v>216</v>
       </c>
       <c r="E267" s="1">
-        <v>425000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>872</v>
+        <v>348</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>874</v>
+        <v>217</v>
       </c>
       <c r="E268" s="1">
-        <v>75000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>990</v>
+        <v>349</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1007</v>
+        <v>218</v>
       </c>
       <c r="E269" s="1">
-        <v>25000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>883</v>
+        <v>350</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>889</v>
+        <v>219</v>
       </c>
       <c r="E270" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>884</v>
+        <v>351</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>890</v>
+        <v>220</v>
       </c>
       <c r="E271" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -8241,13 +8283,13 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1082</v>
+        <v>1311</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1095</v>
+        <v>1314</v>
       </c>
       <c r="E272" s="1">
-        <v>300000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -8255,13 +8297,13 @@
         <v>270</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>991</v>
+        <v>5</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1008</v>
+        <v>6</v>
       </c>
       <c r="E273" s="1">
-        <v>50000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -8269,13 +8311,13 @@
         <v>270</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>984</v>
+        <v>875</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>985</v>
+        <v>876</v>
       </c>
       <c r="E274" s="1">
-        <v>75000</v>
+        <v>425000</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -8283,13 +8325,13 @@
         <v>270</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="E275" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -8297,13 +8339,13 @@
         <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E276" s="1">
-        <v>50000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -8311,10 +8353,10 @@
         <v>270</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>993</v>
+        <v>883</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1010</v>
+        <v>889</v>
       </c>
       <c r="E277" s="1">
         <v>50000</v>
@@ -8325,10 +8367,10 @@
         <v>270</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>994</v>
+        <v>884</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1011</v>
+        <v>890</v>
       </c>
       <c r="E278" s="1">
         <v>50000</v>
@@ -8339,13 +8381,13 @@
         <v>270</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="E279" s="1">
-        <v>75000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -8353,10 +8395,10 @@
         <v>270</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E280" s="1">
         <v>50000</v>
@@ -8367,13 +8409,13 @@
         <v>270</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1013</v>
+        <v>985</v>
       </c>
       <c r="E281" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -8381,10 +8423,10 @@
         <v>270</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>997</v>
+        <v>885</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1014</v>
+        <v>891</v>
       </c>
       <c r="E282" s="1">
         <v>50000</v>
@@ -8395,13 +8437,13 @@
         <v>270</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1085</v>
+        <v>992</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1089</v>
+        <v>1009</v>
       </c>
       <c r="E283" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -8409,10 +8451,10 @@
         <v>270</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E284" s="1">
         <v>50000</v>
@@ -8423,13 +8465,13 @@
         <v>270</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>877</v>
+        <v>994</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>880</v>
+        <v>1011</v>
       </c>
       <c r="E285" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -8437,13 +8479,13 @@
         <v>270</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>999</v>
+        <v>1086</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1016</v>
+        <v>1090</v>
       </c>
       <c r="E286" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -8451,13 +8493,13 @@
         <v>270</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1312</v>
+        <v>995</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>1315</v>
+        <v>1012</v>
       </c>
       <c r="E287" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -8465,13 +8507,13 @@
         <v>270</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>8</v>
+        <v>996</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>7</v>
+        <v>1013</v>
       </c>
       <c r="E288" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -8479,10 +8521,10 @@
         <v>270</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E289" s="1">
         <v>50000</v>
@@ -8493,13 +8535,13 @@
         <v>270</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1001</v>
+        <v>1085</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1018</v>
+        <v>1089</v>
       </c>
       <c r="E290" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -8507,13 +8549,13 @@
         <v>270</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1310</v>
+        <v>998</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1313</v>
+        <v>1015</v>
       </c>
       <c r="E291" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -8521,13 +8563,13 @@
         <v>270</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1060</v>
+        <v>877</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1059</v>
+        <v>880</v>
       </c>
       <c r="E292" s="1">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -8535,13 +8577,13 @@
         <v>270</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>878</v>
+        <v>999</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>879</v>
+        <v>1016</v>
       </c>
       <c r="E293" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -8549,13 +8591,13 @@
         <v>270</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1087</v>
+        <v>1312</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1091</v>
+        <v>1315</v>
       </c>
       <c r="E294" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -8563,13 +8605,13 @@
         <v>270</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>986</v>
+        <v>8</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>988</v>
+        <v>7</v>
       </c>
       <c r="E295" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -8577,13 +8619,13 @@
         <v>270</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="E296" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -8591,13 +8633,13 @@
         <v>270</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>4</v>
+        <v>1018</v>
       </c>
       <c r="E297" s="1">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -8605,13 +8647,13 @@
         <v>270</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1002</v>
+        <v>1310</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1019</v>
+        <v>1313</v>
       </c>
       <c r="E298" s="1">
-        <v>50000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -8619,13 +8661,13 @@
         <v>270</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>882</v>
+        <v>1060</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>888</v>
+        <v>1059</v>
       </c>
       <c r="E299" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -8633,13 +8675,13 @@
         <v>270</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1003</v>
+        <v>878</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1020</v>
+        <v>879</v>
       </c>
       <c r="E300" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -8647,10 +8689,10 @@
         <v>270</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>871</v>
+        <v>1087</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>873</v>
+        <v>1091</v>
       </c>
       <c r="E301" s="1">
         <v>75000</v>
@@ -8661,10 +8703,10 @@
         <v>270</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>881</v>
+        <v>986</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>887</v>
+        <v>988</v>
       </c>
       <c r="E302" s="1">
         <v>75000</v>
@@ -8675,13 +8717,13 @@
         <v>270</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1021</v>
+        <v>989</v>
       </c>
       <c r="E303" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -8689,13 +8731,13 @@
         <v>270</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1081</v>
+        <v>3</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1093</v>
+        <v>4</v>
       </c>
       <c r="E304" s="1">
-        <v>75000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -8703,13 +8745,13 @@
         <v>270</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1080</v>
+        <v>1002</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1092</v>
+        <v>1019</v>
       </c>
       <c r="E305" s="1">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -8717,13 +8759,13 @@
         <v>270</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E306" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -8731,10 +8773,10 @@
         <v>270</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E307" s="1">
         <v>50000</v>
@@ -8745,13 +8787,13 @@
         <v>270</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1083</v>
+        <v>871</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1094</v>
+        <v>873</v>
       </c>
       <c r="E308" s="1">
-        <v>300000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -8759,10 +8801,10 @@
         <v>270</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1084</v>
+        <v>881</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1088</v>
+        <v>887</v>
       </c>
       <c r="E309" s="1">
         <v>75000</v>
@@ -8773,10 +8815,10 @@
         <v>270</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E310" s="1">
         <v>50000</v>
@@ -8784,41 +8826,41 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>894</v>
+        <v>1081</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>941</v>
+        <v>1093</v>
       </c>
       <c r="E311" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>895</v>
+        <v>1080</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>942</v>
+        <v>1092</v>
       </c>
       <c r="E312" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>943</v>
+        <v>892</v>
       </c>
       <c r="E313" s="1">
         <v>50000</v>
@@ -8826,13 +8868,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>897</v>
+        <v>1005</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>944</v>
+        <v>1022</v>
       </c>
       <c r="E314" s="1">
         <v>50000</v>
@@ -8840,41 +8882,41 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>898</v>
+        <v>1083</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>945</v>
+        <v>1094</v>
       </c>
       <c r="E315" s="1">
-        <v>50000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>899</v>
+        <v>1084</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>946</v>
+        <v>1088</v>
       </c>
       <c r="E316" s="1">
-        <v>50000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>893</v>
+        <v>270</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>900</v>
+        <v>1006</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>947</v>
+        <v>1023</v>
       </c>
       <c r="E317" s="1">
         <v>50000</v>
@@ -8885,10 +8927,10 @@
         <v>893</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="E318" s="1">
         <v>50000</v>
@@ -8899,10 +8941,10 @@
         <v>893</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E319" s="1">
         <v>50000</v>
@@ -8913,10 +8955,10 @@
         <v>893</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="E320" s="1">
         <v>50000</v>
@@ -8927,10 +8969,10 @@
         <v>893</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="E321" s="1">
         <v>50000</v>
@@ -8941,10 +8983,10 @@
         <v>893</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="E322" s="1">
         <v>50000</v>
@@ -8955,10 +8997,10 @@
         <v>893</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="E323" s="1">
         <v>50000</v>
@@ -8969,10 +9011,10 @@
         <v>893</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1061</v>
+        <v>947</v>
       </c>
       <c r="E324" s="1">
         <v>50000</v>
@@ -8983,10 +9025,10 @@
         <v>893</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1062</v>
+        <v>948</v>
       </c>
       <c r="E325" s="1">
         <v>50000</v>
@@ -8997,10 +9039,10 @@
         <v>893</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E326" s="1">
         <v>50000</v>
@@ -9011,10 +9053,10 @@
         <v>893</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E327" s="1">
         <v>50000</v>
@@ -9025,10 +9067,10 @@
         <v>893</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E328" s="1">
         <v>50000</v>
@@ -9039,10 +9081,10 @@
         <v>893</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="E329" s="1">
         <v>50000</v>
@@ -9053,10 +9095,10 @@
         <v>893</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E330" s="1">
         <v>50000</v>
@@ -9067,10 +9109,10 @@
         <v>893</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>959</v>
+        <v>1061</v>
       </c>
       <c r="E331" s="1">
         <v>50000</v>
@@ -9081,10 +9123,10 @@
         <v>893</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>960</v>
+        <v>1062</v>
       </c>
       <c r="E332" s="1">
         <v>50000</v>
@@ -9095,10 +9137,10 @@
         <v>893</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="E333" s="1">
         <v>50000</v>
@@ -9109,10 +9151,10 @@
         <v>893</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="E334" s="1">
         <v>50000</v>
@@ -9123,10 +9165,10 @@
         <v>893</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="E335" s="1">
         <v>50000</v>
@@ -9137,10 +9179,10 @@
         <v>893</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="E336" s="1">
         <v>50000</v>
@@ -9151,10 +9193,10 @@
         <v>893</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="E337" s="1">
         <v>50000</v>
@@ -9165,10 +9207,10 @@
         <v>893</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="E338" s="1">
         <v>50000</v>
@@ -9179,10 +9221,10 @@
         <v>893</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="E339" s="1">
         <v>50000</v>
@@ -9193,10 +9235,10 @@
         <v>893</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="E340" s="1">
         <v>50000</v>
@@ -9207,10 +9249,10 @@
         <v>893</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="E341" s="1">
         <v>50000</v>
@@ -9221,10 +9263,10 @@
         <v>893</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="E342" s="1">
         <v>50000</v>
@@ -9235,10 +9277,10 @@
         <v>893</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="E343" s="1">
         <v>50000</v>
@@ -9249,10 +9291,10 @@
         <v>893</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>1063</v>
+        <v>965</v>
       </c>
       <c r="E344" s="1">
         <v>50000</v>
@@ -9263,10 +9305,10 @@
         <v>893</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>1064</v>
+        <v>966</v>
       </c>
       <c r="E345" s="1">
         <v>50000</v>
@@ -9277,10 +9319,10 @@
         <v>893</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E346" s="1">
         <v>50000</v>
@@ -9291,10 +9333,10 @@
         <v>893</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="E347" s="1">
         <v>50000</v>
@@ -9305,10 +9347,10 @@
         <v>893</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="E348" s="1">
         <v>50000</v>
@@ -9319,10 +9361,10 @@
         <v>893</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E349" s="1">
         <v>50000</v>
@@ -9333,10 +9375,10 @@
         <v>893</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E350" s="1">
         <v>50000</v>
@@ -9347,10 +9389,10 @@
         <v>893</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>977</v>
+        <v>1063</v>
       </c>
       <c r="E351" s="1">
         <v>50000</v>
@@ -9361,10 +9403,10 @@
         <v>893</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>978</v>
+        <v>1064</v>
       </c>
       <c r="E352" s="1">
         <v>50000</v>
@@ -9375,10 +9417,10 @@
         <v>893</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="E353" s="1">
         <v>50000</v>
@@ -9389,10 +9431,10 @@
         <v>893</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="E354" s="1">
         <v>50000</v>
@@ -9403,10 +9445,10 @@
         <v>893</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="E355" s="1">
         <v>50000</v>
@@ -9417,10 +9459,10 @@
         <v>893</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="E356" s="1">
         <v>50000</v>
@@ -9431,10 +9473,10 @@
         <v>893</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="E357" s="1">
         <v>50000</v>
@@ -9442,100 +9484,100 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>854</v>
+        <v>934</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>870</v>
+        <v>977</v>
       </c>
       <c r="E358" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>849</v>
+        <v>935</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>865</v>
+        <v>978</v>
       </c>
       <c r="E359" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>848</v>
+        <v>936</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>864</v>
+        <v>979</v>
       </c>
       <c r="E360" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>852</v>
+        <v>937</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>868</v>
+        <v>980</v>
       </c>
       <c r="E361" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>840</v>
+        <v>938</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>856</v>
+        <v>981</v>
       </c>
       <c r="E362" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>853</v>
+        <v>939</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>869</v>
+        <v>982</v>
       </c>
       <c r="E363" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>843</v>
+        <v>940</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>859</v>
+        <v>983</v>
       </c>
       <c r="E364" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -9543,10 +9585,10 @@
         <v>798</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E365" s="1">
         <v>25000</v>
@@ -9557,10 +9599,10 @@
         <v>798</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="E366" s="1">
         <v>25000</v>
@@ -9571,10 +9613,10 @@
         <v>798</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E367" s="1">
         <v>25000</v>
@@ -9585,10 +9627,10 @@
         <v>798</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>446</v>
+        <v>852</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>256</v>
+        <v>868</v>
       </c>
       <c r="E368" s="1">
         <v>25000</v>
@@ -9599,10 +9641,10 @@
         <v>798</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E369" s="1">
         <v>25000</v>
@@ -9613,10 +9655,10 @@
         <v>798</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="E370" s="1">
         <v>25000</v>
@@ -9627,10 +9669,10 @@
         <v>798</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E371" s="1">
         <v>25000</v>
@@ -9641,10 +9683,10 @@
         <v>798</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="E372" s="1">
         <v>25000</v>
@@ -9655,10 +9697,10 @@
         <v>798</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E373" s="1">
         <v>25000</v>
@@ -9669,10 +9711,10 @@
         <v>798</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E374" s="1">
         <v>25000</v>
@@ -9680,163 +9722,100 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1124</v>
+        <v>446</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="E375" s="1">
-        <v>300</v>
-      </c>
-      <c r="F375" s="1">
-        <v>150</v>
-      </c>
-      <c r="G375" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H375" s="3" t="s">
-        <v>1254</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1124</v>
+        <v>842</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>858</v>
       </c>
       <c r="E376" s="1">
-        <v>120</v>
-      </c>
-      <c r="F376" s="1">
-        <v>60</v>
-      </c>
-      <c r="G376" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H376" s="3" t="s">
-        <v>1255</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1124</v>
+        <v>841</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="E377" s="1">
-        <v>100</v>
-      </c>
-      <c r="F377" s="1">
-        <v>50</v>
-      </c>
-      <c r="G377" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H377" s="3" t="s">
-        <v>1252</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1124</v>
+        <v>850</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>866</v>
       </c>
       <c r="E378" s="1">
-        <v>600</v>
-      </c>
-      <c r="F378" s="1">
-        <v>300</v>
-      </c>
-      <c r="G378" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H378" s="3" t="s">
-        <v>1253</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1124</v>
+        <v>847</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="E379" s="1">
         <v>25000</v>
       </c>
-      <c r="F379" s="1">
-        <v>12500</v>
-      </c>
-      <c r="G379" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H379" s="3" t="s">
-        <v>1261</v>
-      </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1124</v>
+        <v>844</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>860</v>
       </c>
       <c r="E380" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F380" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G380" t="s">
-        <v>1203</v>
-      </c>
-      <c r="H380" s="3" t="s">
-        <v>1263</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>269</v>
+        <v>798</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C381" t="s">
-        <v>1124</v>
+        <v>845</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>861</v>
       </c>
       <c r="E381" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F381" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G381" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H381" s="3" t="s">
-        <v>1269</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -9844,22 +9823,22 @@
         <v>269</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1165</v>
+        <v>1232</v>
       </c>
       <c r="C382" t="s">
         <v>1124</v>
       </c>
       <c r="E382" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F382" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G382" t="s">
-        <v>1137</v>
+        <v>1243</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>1205</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -9867,22 +9846,22 @@
         <v>269</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1166</v>
+        <v>1233</v>
       </c>
       <c r="C383" t="s">
         <v>1124</v>
       </c>
       <c r="E383" s="1">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="F383" s="1">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="G383" t="s">
-        <v>1140</v>
+        <v>1244</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>1206</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -9890,22 +9869,22 @@
         <v>269</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1167</v>
+        <v>1230</v>
       </c>
       <c r="C384" t="s">
         <v>1124</v>
       </c>
       <c r="E384" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F384" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G384" t="s">
-        <v>1132</v>
+        <v>1241</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>1207</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -9913,22 +9892,22 @@
         <v>269</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="C385" t="s">
         <v>1124</v>
       </c>
       <c r="E385" s="1">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="F385" s="1">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="G385" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -9936,22 +9915,22 @@
         <v>269</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1168</v>
+        <v>1239</v>
       </c>
       <c r="C386" t="s">
         <v>1124</v>
       </c>
       <c r="E386" s="1">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="F386" s="1">
-        <v>500</v>
+        <v>12500</v>
       </c>
       <c r="G386" t="s">
-        <v>1129</v>
+        <v>1250</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>1208</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -9959,22 +9938,22 @@
         <v>269</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1235</v>
+        <v>1201</v>
       </c>
       <c r="C387" t="s">
         <v>1124</v>
       </c>
       <c r="E387" s="1">
-        <v>1280</v>
+        <v>10000</v>
       </c>
       <c r="F387" s="1">
-        <v>640</v>
+        <v>5000</v>
       </c>
       <c r="G387" t="s">
-        <v>1246</v>
+        <v>1203</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -9982,22 +9961,22 @@
         <v>269</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1169</v>
+        <v>1267</v>
       </c>
       <c r="C388" t="s">
         <v>1124</v>
       </c>
       <c r="E388" s="1">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="F388" s="1">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G388" t="s">
-        <v>1125</v>
+        <v>1268</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>1209</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -10005,22 +9984,22 @@
         <v>269</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C389" t="s">
         <v>1124</v>
       </c>
       <c r="E389" s="1">
-        <v>250000</v>
+        <v>1000</v>
       </c>
       <c r="F389" s="1">
-        <v>125000</v>
+        <v>500</v>
       </c>
       <c r="G389" t="s">
-        <v>1067</v>
+        <v>1137</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -10028,22 +10007,22 @@
         <v>269</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="C390" t="s">
         <v>1124</v>
       </c>
       <c r="E390" s="1">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F390" s="1">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="G390" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -10051,7 +10030,7 @@
         <v>269</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="C391" t="s">
         <v>1124</v>
@@ -10063,10 +10042,10 @@
         <v>500</v>
       </c>
       <c r="G391" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -10074,22 +10053,22 @@
         <v>269</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C392" t="s">
         <v>1124</v>
       </c>
       <c r="E392" s="1">
-        <v>1360</v>
+        <v>140</v>
       </c>
       <c r="F392" s="1">
-        <v>680</v>
+        <v>70</v>
       </c>
       <c r="G392" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -10097,22 +10076,22 @@
         <v>269</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1234</v>
+        <v>1168</v>
       </c>
       <c r="C393" t="s">
         <v>1124</v>
       </c>
       <c r="E393" s="1">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="F393" s="1">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="G393" t="s">
-        <v>1245</v>
+        <v>1129</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>1256</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -10120,22 +10099,22 @@
         <v>269</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1173</v>
+        <v>1235</v>
       </c>
       <c r="C394" t="s">
         <v>1124</v>
       </c>
       <c r="E394" s="1">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="F394" s="1">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="G394" t="s">
-        <v>1127</v>
+        <v>1246</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>1213</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -10143,22 +10122,22 @@
         <v>269</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C395" t="s">
         <v>1124</v>
       </c>
       <c r="E395" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F395" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G395" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -10166,22 +10145,22 @@
         <v>269</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="C396" t="s">
         <v>1124</v>
       </c>
       <c r="E396" s="1">
-        <v>1000</v>
+        <v>250000</v>
       </c>
       <c r="F396" s="1">
-        <v>500</v>
+        <v>125000</v>
       </c>
       <c r="G396" t="s">
-        <v>1142</v>
+        <v>1067</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -10189,22 +10168,22 @@
         <v>269</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C397" t="s">
         <v>1124</v>
       </c>
       <c r="E397" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F397" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G397" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -10212,22 +10191,22 @@
         <v>269</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1</v>
+        <v>1172</v>
       </c>
       <c r="C398" t="s">
         <v>1124</v>
       </c>
       <c r="E398" s="1">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="F398" s="1">
-        <v>250000</v>
+        <v>500</v>
       </c>
       <c r="G398" t="s">
-        <v>2</v>
+        <v>1131</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -10235,22 +10214,22 @@
         <v>269</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1177</v>
+        <v>1237</v>
       </c>
       <c r="C399" t="s">
         <v>1124</v>
       </c>
       <c r="E399" s="1">
-        <v>1000</v>
+        <v>1360</v>
       </c>
       <c r="F399" s="1">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="G399" t="s">
-        <v>1128</v>
+        <v>1248</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>1218</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -10258,22 +10237,22 @@
         <v>269</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1178</v>
+        <v>1234</v>
       </c>
       <c r="C400" t="s">
         <v>1124</v>
       </c>
       <c r="E400" s="1">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="F400" s="1">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G400" t="s">
-        <v>1135</v>
+        <v>1245</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>1219</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -10281,7 +10260,7 @@
         <v>269</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="C401" t="s">
         <v>1124</v>
@@ -10293,10 +10272,10 @@
         <v>500</v>
       </c>
       <c r="G401" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -10304,22 +10283,22 @@
         <v>269</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1264</v>
+        <v>1174</v>
       </c>
       <c r="C402" t="s">
         <v>1124</v>
       </c>
       <c r="E402" s="1">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="F402" s="1">
-        <v>250000</v>
+        <v>500</v>
       </c>
       <c r="G402" t="s">
-        <v>1265</v>
+        <v>1130</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>1266</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -10327,22 +10306,22 @@
         <v>269</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1065</v>
+        <v>1175</v>
       </c>
       <c r="C403" t="s">
         <v>1124</v>
       </c>
       <c r="E403" s="1">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="F403" s="1">
-        <v>250000</v>
+        <v>500</v>
       </c>
       <c r="G403" t="s">
-        <v>1066</v>
+        <v>1142</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -10350,22 +10329,22 @@
         <v>269</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C404" t="s">
         <v>1124</v>
       </c>
       <c r="E404" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F404" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G404" t="s">
-        <v>1124</v>
+        <v>1138</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -10373,22 +10352,22 @@
         <v>269</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>370</v>
+        <v>1</v>
       </c>
       <c r="C405" t="s">
         <v>1124</v>
       </c>
       <c r="E405" s="1">
-        <v>200</v>
+        <v>500000</v>
       </c>
       <c r="F405" s="1">
-        <v>100</v>
+        <v>250000</v>
       </c>
       <c r="G405" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -10396,7 +10375,7 @@
         <v>269</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C406" t="s">
         <v>1124</v>
@@ -10408,10 +10387,10 @@
         <v>500</v>
       </c>
       <c r="G406" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -10419,7 +10398,7 @@
         <v>269</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C407" t="s">
         <v>1124</v>
@@ -10431,10 +10410,10 @@
         <v>500</v>
       </c>
       <c r="G407" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -10442,7 +10421,7 @@
         <v>269</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>1202</v>
+        <v>1179</v>
       </c>
       <c r="C408" t="s">
         <v>1124</v>
@@ -10454,10 +10433,10 @@
         <v>500</v>
       </c>
       <c r="G408" t="s">
-        <v>1204</v>
+        <v>1136</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -10465,22 +10444,22 @@
         <v>269</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1183</v>
+        <v>1264</v>
       </c>
       <c r="C409" t="s">
         <v>1124</v>
       </c>
       <c r="E409" s="1">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="F409" s="1">
-        <v>500</v>
+        <v>250000</v>
       </c>
       <c r="G409" t="s">
-        <v>1143</v>
+        <v>1265</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>1226</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -10488,22 +10467,22 @@
         <v>269</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1240</v>
+        <v>1065</v>
       </c>
       <c r="C410" t="s">
         <v>1124</v>
       </c>
       <c r="E410" s="1">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="F410" s="1">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="G410" t="s">
-        <v>1251</v>
+        <v>1066</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>1262</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -10511,22 +10490,22 @@
         <v>269</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C411" t="s">
         <v>1124</v>
       </c>
       <c r="E411" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F411" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G411" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -10534,22 +10513,22 @@
         <v>269</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>1185</v>
+        <v>370</v>
       </c>
       <c r="C412" t="s">
         <v>1124</v>
       </c>
       <c r="E412" s="1">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="F412" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G412" t="s">
-        <v>1126</v>
+        <v>143</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -10557,358 +10536,379 @@
         <v>269</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1236</v>
+        <v>1181</v>
       </c>
       <c r="C413" t="s">
         <v>1124</v>
       </c>
       <c r="E413" s="1">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="F413" s="1">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="G413" t="s">
-        <v>1247</v>
+        <v>1141</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>1258</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E414" s="1">
+        <v>1000</v>
       </c>
       <c r="F414" s="1">
-        <v>25000</v>
+        <v>500</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>1193</v>
+        <v>1202</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E415" s="1">
+        <v>1000</v>
       </c>
       <c r="F415" s="1">
-        <v>1000</v>
+        <v>500</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>1187</v>
+        <v>1183</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E416" s="1">
+        <v>1000</v>
       </c>
       <c r="F416" s="1">
-        <v>100000</v>
+        <v>500</v>
+      </c>
+      <c r="G416" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>1191</v>
+        <v>1240</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E417" s="1">
+        <v>10000</v>
       </c>
       <c r="F417" s="1">
         <v>5000</v>
       </c>
+      <c r="G417" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>1192</v>
+        <v>1184</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E418" s="1">
+        <v>1000</v>
       </c>
       <c r="F418" s="1">
-        <v>2500</v>
+        <v>500</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>1188</v>
+        <v>1185</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E419" s="1">
+        <v>1200</v>
       </c>
       <c r="F419" s="1">
-        <v>50000</v>
+        <v>600</v>
+      </c>
+      <c r="G419" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>1186</v>
+        <v>269</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>1190</v>
+        <v>1236</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E420" s="1">
+        <v>340</v>
       </c>
       <c r="F420" s="1">
-        <v>10000</v>
+        <v>170</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>783</v>
+        <v>1196</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E421" s="1">
-        <v>980</v>
+        <v>1189</v>
+      </c>
+      <c r="F421" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>782</v>
+        <v>1200</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E422" s="1">
-        <v>980</v>
+        <v>1193</v>
+      </c>
+      <c r="F422" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>779</v>
+        <v>1194</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E423" s="1">
-        <v>980</v>
+        <v>1187</v>
+      </c>
+      <c r="F423" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>780</v>
+        <v>1198</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E424" s="1">
-        <v>980</v>
+        <v>1191</v>
+      </c>
+      <c r="F424" s="1">
+        <v>5000</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>778</v>
+        <v>1199</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E425" s="1">
-        <v>980</v>
+        <v>1192</v>
+      </c>
+      <c r="F425" s="1">
+        <v>2500</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>781</v>
+        <v>1195</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="E426" s="1">
-        <v>980</v>
+        <v>1188</v>
+      </c>
+      <c r="F426" s="1">
+        <v>50000</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>784</v>
+        <v>1197</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="E427" s="1">
-        <v>980</v>
+        <v>1190</v>
+      </c>
+      <c r="F427" s="1">
+        <v>10000</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>690</v>
+        <v>783</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>472</v>
+        <v>677</v>
       </c>
       <c r="E428" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G428" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="H428" s="3" t="s">
-        <v>498</v>
+        <v>980</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>472</v>
+        <v>676</v>
       </c>
       <c r="E429" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G429" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="H429" s="3" t="s">
-        <v>639</v>
+        <v>980</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>693</v>
+        <v>779</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>472</v>
+        <v>673</v>
       </c>
       <c r="E430" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G430" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="H430" s="3" t="s">
-        <v>508</v>
+        <v>980</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>472</v>
+        <v>674</v>
       </c>
       <c r="E431" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G431" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="H431" s="3" t="s">
-        <v>586</v>
+        <v>980</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>705</v>
+        <v>778</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>472</v>
+        <v>672</v>
       </c>
       <c r="E432" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G432" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H432" s="3" t="s">
-        <v>532</v>
+        <v>980</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>717</v>
+        <v>781</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>472</v>
+        <v>675</v>
       </c>
       <c r="E433" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G433" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="H433" s="3" t="s">
-        <v>556</v>
+        <v>980</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>776</v>
+        <v>1058</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>684</v>
+        <v>784</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>472</v>
+        <v>678</v>
       </c>
       <c r="E434" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G434" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="H434" s="3" t="s">
-        <v>486</v>
+        <v>980</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -10916,7 +10916,7 @@
         <v>776</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>775</v>
+        <v>690</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>472</v>
@@ -10925,10 +10925,10 @@
         <v>10000</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>670</v>
+        <v>497</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>671</v>
+        <v>498</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -10936,7 +10936,7 @@
         <v>776</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>472</v>
@@ -10945,10 +10945,10 @@
         <v>10000</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>475</v>
+        <v>638</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>476</v>
+        <v>639</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -10956,7 +10956,7 @@
         <v>776</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>742</v>
+        <v>693</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>472</v>
@@ -10965,10 +10965,10 @@
         <v>10000</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>605</v>
+        <v>507</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>606</v>
+        <v>508</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -10976,7 +10976,7 @@
         <v>776</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>472</v>
@@ -10985,10 +10985,10 @@
         <v>10000</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -10996,7 +10996,7 @@
         <v>776</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>472</v>
@@ -11005,10 +11005,10 @@
         <v>10000</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -11016,7 +11016,7 @@
         <v>776</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>472</v>
@@ -11025,10 +11025,10 @@
         <v>10000</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -11036,7 +11036,7 @@
         <v>776</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>729</v>
+        <v>684</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>472</v>
@@ -11045,10 +11045,10 @@
         <v>10000</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>579</v>
+        <v>485</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>580</v>
+        <v>486</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -11056,7 +11056,7 @@
         <v>776</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>720</v>
+        <v>775</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>472</v>
@@ -11065,10 +11065,10 @@
         <v>10000</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>561</v>
+        <v>670</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>562</v>
+        <v>671</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -11076,7 +11076,7 @@
         <v>776</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>472</v>
@@ -11085,10 +11085,10 @@
         <v>10000</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -11096,7 +11096,7 @@
         <v>776</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>472</v>
@@ -11105,10 +11105,10 @@
         <v>10000</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -11116,7 +11116,7 @@
         <v>776</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>472</v>
@@ -11125,10 +11125,10 @@
         <v>10000</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>658</v>
+        <v>595</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>659</v>
+        <v>596</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -11136,7 +11136,7 @@
         <v>776</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>768</v>
+        <v>724</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>472</v>
@@ -11145,10 +11145,10 @@
         <v>10000</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>656</v>
+        <v>569</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>657</v>
+        <v>570</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -11156,7 +11156,7 @@
         <v>776</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>472</v>
@@ -11165,10 +11165,10 @@
         <v>10000</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -11176,7 +11176,7 @@
         <v>776</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>472</v>
@@ -11185,10 +11185,10 @@
         <v>10000</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -11196,7 +11196,7 @@
         <v>776</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>472</v>
@@ -11205,10 +11205,10 @@
         <v>10000</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -11216,7 +11216,7 @@
         <v>776</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>763</v>
+        <v>708</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>472</v>
@@ -11225,10 +11225,10 @@
         <v>10000</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>646</v>
+        <v>537</v>
       </c>
       <c r="H450" s="3" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -11236,7 +11236,7 @@
         <v>776</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>472</v>
@@ -11245,10 +11245,10 @@
         <v>10000</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -11256,7 +11256,7 @@
         <v>776</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>472</v>
@@ -11265,10 +11265,10 @@
         <v>10000</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>493</v>
+        <v>658</v>
       </c>
       <c r="H452" s="3" t="s">
-        <v>494</v>
+        <v>659</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -11276,7 +11276,7 @@
         <v>776</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>472</v>
@@ -11285,10 +11285,10 @@
         <v>10000</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -11296,7 +11296,7 @@
         <v>776</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>472</v>
@@ -11305,10 +11305,10 @@
         <v>10000</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -11316,7 +11316,7 @@
         <v>776</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>472</v>
@@ -11325,10 +11325,10 @@
         <v>10000</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="H455" s="3" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
         <v>776</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>472</v>
@@ -11345,10 +11345,10 @@
         <v>10000</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H456" s="3" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -11356,7 +11356,7 @@
         <v>776</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>692</v>
+        <v>763</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>472</v>
@@ -11365,10 +11365,10 @@
         <v>10000</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>503</v>
+        <v>646</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>504</v>
+        <v>647</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -11376,7 +11376,7 @@
         <v>776</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>681</v>
+        <v>743</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>472</v>
@@ -11385,10 +11385,10 @@
         <v>10000</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>477</v>
+        <v>607</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>478</v>
+        <v>608</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -11396,7 +11396,7 @@
         <v>776</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>472</v>
@@ -11405,10 +11405,10 @@
         <v>10000</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="H459" s="3" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -11416,7 +11416,7 @@
         <v>776</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>472</v>
@@ -11425,10 +11425,10 @@
         <v>10000</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -11436,7 +11436,7 @@
         <v>776</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>472</v>
@@ -11445,10 +11445,10 @@
         <v>10000</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -11456,7 +11456,7 @@
         <v>776</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>472</v>
@@ -11465,10 +11465,10 @@
         <v>10000</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -11476,7 +11476,7 @@
         <v>776</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>472</v>
@@ -11485,10 +11485,10 @@
         <v>10000</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -11496,7 +11496,7 @@
         <v>776</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>472</v>
@@ -11505,10 +11505,10 @@
         <v>10000</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -11516,7 +11516,7 @@
         <v>776</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>753</v>
+        <v>681</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>472</v>
@@ -11525,10 +11525,10 @@
         <v>10000</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>626</v>
+        <v>477</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>627</v>
+        <v>478</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -11536,7 +11536,7 @@
         <v>776</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>472</v>
@@ -11545,10 +11545,10 @@
         <v>10000</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -11556,7 +11556,7 @@
         <v>776</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>472</v>
@@ -11565,10 +11565,10 @@
         <v>10000</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
         <v>776</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>472</v>
@@ -11585,10 +11585,10 @@
         <v>10000</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -11596,7 +11596,7 @@
         <v>776</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>472</v>
@@ -11605,10 +11605,10 @@
         <v>10000</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="H469" s="3" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -11616,7 +11616,7 @@
         <v>776</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>472</v>
@@ -11625,10 +11625,10 @@
         <v>10000</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -11636,7 +11636,7 @@
         <v>776</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>770</v>
+        <v>710</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>472</v>
@@ -11645,10 +11645,10 @@
         <v>10000</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>660</v>
+        <v>541</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>661</v>
+        <v>542</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -11656,7 +11656,7 @@
         <v>776</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>472</v>
@@ -11665,10 +11665,10 @@
         <v>10000</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
@@ -11676,7 +11676,7 @@
         <v>776</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>682</v>
+        <v>749</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>472</v>
@@ -11685,10 +11685,10 @@
         <v>10000</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>479</v>
+        <v>618</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>480</v>
+        <v>619</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -11696,7 +11696,7 @@
         <v>776</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>472</v>
@@ -11705,10 +11705,10 @@
         <v>10000</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -11716,7 +11716,7 @@
         <v>776</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>472</v>
@@ -11725,10 +11725,10 @@
         <v>10000</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>483</v>
+        <v>648</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>484</v>
+        <v>649</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
@@ -11736,7 +11736,7 @@
         <v>776</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>472</v>
@@ -11745,10 +11745,10 @@
         <v>10000</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -11756,7 +11756,7 @@
         <v>776</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>472</v>
@@ -11765,10 +11765,10 @@
         <v>10000</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -11776,7 +11776,7 @@
         <v>776</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>707</v>
+        <v>770</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>472</v>
@@ -11785,10 +11785,10 @@
         <v>10000</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>535</v>
+        <v>660</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>536</v>
+        <v>661</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -11796,7 +11796,7 @@
         <v>776</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>472</v>
@@ -11805,10 +11805,10 @@
         <v>10000</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -11816,7 +11816,7 @@
         <v>776</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>747</v>
+        <v>682</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>472</v>
@@ -11825,10 +11825,10 @@
         <v>10000</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>615</v>
+        <v>479</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>614</v>
+        <v>480</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -11836,7 +11836,7 @@
         <v>776</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>472</v>
@@ -11845,10 +11845,10 @@
         <v>10000</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -11856,7 +11856,7 @@
         <v>776</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>774</v>
+        <v>683</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>472</v>
@@ -11865,10 +11865,10 @@
         <v>10000</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>668</v>
+        <v>483</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>669</v>
+        <v>484</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -11876,7 +11876,7 @@
         <v>776</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>685</v>
+        <v>722</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>472</v>
@@ -11885,10 +11885,10 @@
         <v>10000</v>
       </c>
       <c r="G483" s="3" t="s">
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -11896,7 +11896,7 @@
         <v>776</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>472</v>
@@ -11905,10 +11905,10 @@
         <v>10000</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>529</v>
+        <v>620</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>530</v>
+        <v>621</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -11916,7 +11916,7 @@
         <v>776</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>458</v>
+        <v>707</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>472</v>
@@ -11925,10 +11925,10 @@
         <v>10000</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="H485" s="3" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -11936,7 +11936,7 @@
         <v>776</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>472</v>
@@ -11945,10 +11945,10 @@
         <v>10000</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -11956,7 +11956,7 @@
         <v>776</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>472</v>
@@ -11965,10 +11965,10 @@
         <v>10000</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H487" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -11976,7 +11976,7 @@
         <v>776</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>472</v>
@@ -11985,10 +11985,10 @@
         <v>10000</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -11996,7 +11996,7 @@
         <v>776</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>719</v>
+        <v>774</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>472</v>
@@ -12005,10 +12005,10 @@
         <v>10000</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>559</v>
+        <v>668</v>
       </c>
       <c r="H489" s="3" t="s">
-        <v>560</v>
+        <v>669</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -12016,7 +12016,7 @@
         <v>776</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>766</v>
+        <v>685</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>472</v>
@@ -12025,10 +12025,10 @@
         <v>10000</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>652</v>
+        <v>487</v>
       </c>
       <c r="H490" s="3" t="s">
-        <v>653</v>
+        <v>488</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -12036,7 +12036,7 @@
         <v>776</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>472</v>
@@ -12045,10 +12045,10 @@
         <v>10000</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>587</v>
+        <v>529</v>
       </c>
       <c r="H491" s="3" t="s">
-        <v>588</v>
+        <v>530</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -12056,7 +12056,7 @@
         <v>776</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>772</v>
+        <v>458</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>472</v>
@@ -12065,10 +12065,10 @@
         <v>10000</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>664</v>
+        <v>501</v>
       </c>
       <c r="H492" s="3" t="s">
-        <v>665</v>
+        <v>502</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -12076,7 +12076,7 @@
         <v>776</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>472</v>
@@ -12085,10 +12085,10 @@
         <v>10000</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="H493" s="3" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -12096,7 +12096,7 @@
         <v>776</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>472</v>
@@ -12105,10 +12105,10 @@
         <v>10000</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="H494" s="3" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -12116,7 +12116,7 @@
         <v>776</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>472</v>
@@ -12125,10 +12125,10 @@
         <v>10000</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="H495" s="3" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -12136,7 +12136,7 @@
         <v>776</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>773</v>
+        <v>719</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>472</v>
@@ -12145,10 +12145,10 @@
         <v>10000</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>666</v>
+        <v>559</v>
       </c>
       <c r="H496" s="3" t="s">
-        <v>667</v>
+        <v>560</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -12156,7 +12156,7 @@
         <v>776</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>701</v>
+        <v>766</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>472</v>
@@ -12165,10 +12165,10 @@
         <v>10000</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>523</v>
+        <v>652</v>
       </c>
       <c r="H497" s="3" t="s">
-        <v>524</v>
+        <v>653</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -12176,7 +12176,7 @@
         <v>776</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>472</v>
@@ -12185,10 +12185,10 @@
         <v>10000</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="H498" s="3" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -12196,7 +12196,7 @@
         <v>776</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>472</v>
@@ -12205,10 +12205,10 @@
         <v>10000</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="H499" s="3" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
@@ -12216,7 +12216,7 @@
         <v>776</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>472</v>
@@ -12225,10 +12225,10 @@
         <v>10000</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="H500" s="3" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
@@ -12236,7 +12236,7 @@
         <v>776</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>472</v>
@@ -12245,10 +12245,10 @@
         <v>10000</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="H501" s="3" t="s">
-        <v>540</v>
+        <v>617</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
@@ -12256,7 +12256,7 @@
         <v>776</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>472</v>
@@ -12265,10 +12265,10 @@
         <v>10000</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>553</v>
+        <v>495</v>
       </c>
       <c r="H502" s="3" t="s">
-        <v>554</v>
+        <v>496</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
@@ -12276,7 +12276,7 @@
         <v>776</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>472</v>
@@ -12285,10 +12285,10 @@
         <v>10000</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>527</v>
+        <v>666</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>528</v>
+        <v>667</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -12296,7 +12296,7 @@
         <v>776</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>472</v>
@@ -12305,10 +12305,10 @@
         <v>10000</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H504" s="3" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
@@ -12316,7 +12316,7 @@
         <v>776</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>754</v>
+        <v>697</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>472</v>
@@ -12325,10 +12325,10 @@
         <v>10000</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>628</v>
+        <v>515</v>
       </c>
       <c r="H505" s="3" t="s">
-        <v>629</v>
+        <v>516</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
@@ -12336,7 +12336,7 @@
         <v>776</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>699</v>
+        <v>760</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>472</v>
@@ -12345,10 +12345,10 @@
         <v>10000</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>519</v>
+        <v>640</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>520</v>
+        <v>641</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -12356,7 +12356,7 @@
         <v>776</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>472</v>
@@ -12365,10 +12365,10 @@
         <v>10000</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="H507" s="3" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -12376,7 +12376,7 @@
         <v>776</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>751</v>
+        <v>709</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>472</v>
@@ -12385,10 +12385,10 @@
         <v>10000</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>622</v>
+        <v>539</v>
       </c>
       <c r="H508" s="3" t="s">
-        <v>623</v>
+        <v>540</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -12396,7 +12396,7 @@
         <v>776</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>758</v>
+        <v>716</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>472</v>
@@ -12405,10 +12405,10 @@
         <v>10000</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>636</v>
+        <v>553</v>
       </c>
       <c r="H509" s="3" t="s">
-        <v>637</v>
+        <v>554</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -12416,7 +12416,7 @@
         <v>776</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>472</v>
@@ -12425,10 +12425,10 @@
         <v>10000</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -12436,7 +12436,7 @@
         <v>776</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>472</v>
@@ -12445,10 +12445,10 @@
         <v>10000</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="H511" s="3" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -12456,7 +12456,7 @@
         <v>776</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>66</v>
+        <v>754</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>472</v>
@@ -12465,10 +12465,10 @@
         <v>10000</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>481</v>
+        <v>628</v>
       </c>
       <c r="H512" s="3" t="s">
-        <v>482</v>
+        <v>629</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
@@ -12476,7 +12476,7 @@
         <v>776</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>472</v>
@@ -12485,10 +12485,10 @@
         <v>10000</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="H513" s="3" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
@@ -12496,7 +12496,7 @@
         <v>776</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>472</v>
@@ -12505,10 +12505,10 @@
         <v>10000</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="H514" s="3" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
@@ -12516,7 +12516,7 @@
         <v>776</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>472</v>
@@ -12525,10 +12525,10 @@
         <v>10000</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="H515" s="3" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
@@ -12536,7 +12536,7 @@
         <v>776</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>687</v>
+        <v>758</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>472</v>
@@ -12545,10 +12545,10 @@
         <v>10000</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>491</v>
+        <v>636</v>
       </c>
       <c r="H516" s="3" t="s">
-        <v>492</v>
+        <v>637</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
@@ -12556,7 +12556,7 @@
         <v>776</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>472</v>
@@ -12565,10 +12565,10 @@
         <v>10000</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="H517" s="3" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
@@ -12576,7 +12576,7 @@
         <v>776</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>472</v>
@@ -12585,10 +12585,10 @@
         <v>10000</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="H518" s="3" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
@@ -12596,7 +12596,7 @@
         <v>776</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>695</v>
+        <v>66</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>472</v>
@@ -12605,10 +12605,10 @@
         <v>10000</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="H519" s="3" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -12616,7 +12616,7 @@
         <v>776</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>472</v>
@@ -12625,10 +12625,10 @@
         <v>10000</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
       <c r="H520" s="3" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -12636,7 +12636,7 @@
         <v>776</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>472</v>
@@ -12645,10 +12645,10 @@
         <v>10000</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H521" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -12656,7 +12656,7 @@
         <v>776</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>472</v>
@@ -12665,10 +12665,10 @@
         <v>10000</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="H522" s="3" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
@@ -12676,7 +12676,7 @@
         <v>776</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>70</v>
+        <v>687</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>472</v>
@@ -12685,10 +12685,10 @@
         <v>10000</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
@@ -12696,7 +12696,7 @@
         <v>776</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>762</v>
+        <v>686</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>472</v>
@@ -12705,10 +12705,10 @@
         <v>10000</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>644</v>
+        <v>489</v>
       </c>
       <c r="H524" s="3" t="s">
-        <v>645</v>
+        <v>490</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
@@ -12716,7 +12716,7 @@
         <v>776</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>472</v>
@@ -12725,10 +12725,10 @@
         <v>10000</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>642</v>
+        <v>581</v>
       </c>
       <c r="H525" s="3" t="s">
-        <v>643</v>
+        <v>582</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
@@ -12736,7 +12736,7 @@
         <v>776</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>472</v>
@@ -12745,10 +12745,10 @@
         <v>10000</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>593</v>
+        <v>511</v>
       </c>
       <c r="H526" s="3" t="s">
-        <v>594</v>
+        <v>512</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
@@ -12756,7 +12756,7 @@
         <v>776</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>472</v>
@@ -12765,260 +12765,305 @@
         <v>10000</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>612</v>
+        <v>550</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>451</v>
+        <v>711</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="E528" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H528" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1317</v>
+        <v>767</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1320</v>
+        <v>472</v>
       </c>
       <c r="E529" s="1">
-        <v>250</v>
-      </c>
-      <c r="F529" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1319</v>
+        <v>70</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1323</v>
+        <v>472</v>
       </c>
       <c r="E530" s="1">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H530" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>34</v>
+        <v>762</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="E531" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>33</v>
+        <v>761</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>40</v>
+        <v>472</v>
       </c>
       <c r="E532" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1068</v>
+        <v>736</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1069</v>
+        <v>472</v>
       </c>
       <c r="E533" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1318</v>
+        <v>745</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1322</v>
+        <v>472</v>
       </c>
       <c r="E534" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F534" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1072</v>
+        <v>451</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1074</v>
+        <v>262</v>
       </c>
       <c r="E535" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F535" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1073</v>
+        <v>1317</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1075</v>
+        <v>1320</v>
       </c>
       <c r="E536" s="1">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="F536" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>35</v>
+        <v>1319</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>42</v>
+        <v>1323</v>
       </c>
       <c r="E537" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E538" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E539" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>13</v>
+        <v>1068</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>19</v>
+        <v>1069</v>
       </c>
       <c r="E540" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+      <c r="F540" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>9</v>
+        <v>1318</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>17</v>
+        <v>1322</v>
       </c>
       <c r="E541" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="F541" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>10</v>
+        <v>1072</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>16</v>
+        <v>1074</v>
       </c>
       <c r="E542" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="F542" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>12</v>
+        <v>1073</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>18</v>
+        <v>1075</v>
       </c>
       <c r="E543" s="1">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="F543" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>799</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E544" s="1">
-        <v>25000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -13026,13 +13071,13 @@
         <v>799</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E545" s="1">
-        <v>5000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -13040,13 +13085,13 @@
         <v>799</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1070</v>
+        <v>14</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1071</v>
+        <v>20</v>
       </c>
       <c r="E546" s="1">
-        <v>250000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -13054,27 +13099,24 @@
         <v>799</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1316</v>
+        <v>13</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1321</v>
+        <v>19</v>
       </c>
       <c r="E547" s="1">
-        <v>500</v>
-      </c>
-      <c r="F547" s="1">
-        <v>250</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>822</v>
+        <v>9</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1041</v>
+        <v>17</v>
       </c>
       <c r="E548" s="1">
         <v>25000</v>
@@ -13082,13 +13124,13 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>805</v>
+        <v>10</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1024</v>
+        <v>16</v>
       </c>
       <c r="E549" s="1">
         <v>25000</v>
@@ -13096,13 +13138,13 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>806</v>
+        <v>12</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1025</v>
+        <v>18</v>
       </c>
       <c r="E550" s="1">
         <v>25000</v>
@@ -13110,13 +13152,13 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>823</v>
+        <v>11</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1042</v>
+        <v>15</v>
       </c>
       <c r="E551" s="1">
         <v>25000</v>
@@ -13124,44 +13166,50 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>807</v>
+        <v>32</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1026</v>
+        <v>39</v>
       </c>
       <c r="E552" s="1">
-        <v>25000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>824</v>
+        <v>1070</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="E553" s="1">
-        <v>25000</v>
+        <v>250000</v>
+      </c>
+      <c r="F553" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>808</v>
+        <v>1316</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1027</v>
+        <v>1321</v>
       </c>
       <c r="E554" s="1">
-        <v>25000</v>
+        <v>500</v>
+      </c>
+      <c r="F554" s="1">
+        <v>250</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -13169,10 +13217,10 @@
         <v>804</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
       <c r="E555" s="1">
         <v>25000</v>
@@ -13183,10 +13231,10 @@
         <v>804</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="E556" s="1">
         <v>25000</v>
@@ -13197,10 +13245,10 @@
         <v>804</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E557" s="1">
         <v>25000</v>
@@ -13211,10 +13259,10 @@
         <v>804</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="E558" s="1">
         <v>25000</v>
@@ -13225,10 +13273,10 @@
         <v>804</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E559" s="1">
         <v>25000</v>
@@ -13239,10 +13287,10 @@
         <v>804</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="E560" s="1">
         <v>25000</v>
@@ -13253,10 +13301,10 @@
         <v>804</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E561" s="1">
         <v>25000</v>
@@ -13267,10 +13315,10 @@
         <v>804</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="E562" s="1">
         <v>25000</v>
@@ -13281,10 +13329,10 @@
         <v>804</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="E563" s="1">
         <v>25000</v>
@@ -13295,10 +13343,10 @@
         <v>804</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="E564" s="1">
         <v>25000</v>
@@ -13309,10 +13357,10 @@
         <v>804</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="E565" s="1">
         <v>25000</v>
@@ -13323,10 +13371,10 @@
         <v>804</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="E566" s="1">
         <v>25000</v>
@@ -13337,10 +13385,10 @@
         <v>804</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="E567" s="1">
         <v>25000</v>
@@ -13351,10 +13399,10 @@
         <v>804</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="E568" s="1">
         <v>25000</v>
@@ -13365,10 +13413,10 @@
         <v>804</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="E569" s="1">
         <v>25000</v>
@@ -13379,10 +13427,10 @@
         <v>804</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="E570" s="1">
         <v>25000</v>
@@ -13393,10 +13441,10 @@
         <v>804</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E571" s="1">
         <v>25000</v>
@@ -13407,10 +13455,10 @@
         <v>804</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E572" s="1">
         <v>25000</v>
@@ -13421,10 +13469,10 @@
         <v>804</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="E573" s="1">
         <v>25000</v>
@@ -13435,10 +13483,10 @@
         <v>804</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E574" s="1">
         <v>25000</v>
@@ -13449,10 +13497,10 @@
         <v>804</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="E575" s="1">
         <v>25000</v>
@@ -13463,10 +13511,10 @@
         <v>804</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E576" s="1">
         <v>25000</v>
@@ -13477,10 +13525,10 @@
         <v>804</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="E577" s="1">
         <v>25000</v>
@@ -13491,10 +13539,10 @@
         <v>804</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="E578" s="1">
         <v>25000</v>
@@ -13505,10 +13553,10 @@
         <v>804</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E579" s="1">
         <v>25000</v>
@@ -13519,10 +13567,10 @@
         <v>804</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="E580" s="1">
         <v>25000</v>
@@ -13533,22 +13581,120 @@
         <v>804</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="E581" s="1">
         <v>25000</v>
       </c>
     </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E582" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E583" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E584" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E585" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E586" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E587" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E588" s="1">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H581">
-    <sortCondition ref="A2:A581"/>
-    <sortCondition ref="C2:C581"/>
-    <sortCondition ref="G2:G581"/>
-    <sortCondition ref="D2:D581"/>
-    <sortCondition ref="H2:H581"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H608">
+    <sortCondition ref="A2:A608"/>
+    <sortCondition ref="C2:C608"/>
+    <sortCondition ref="G2:G608"/>
+    <sortCondition ref="D2:D608"/>
+    <sortCondition ref="H2:H608"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
